--- a/plugin/act_builder_lib/clouseAct.xlsx
+++ b/plugin/act_builder_lib/clouseAct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danek\Documents\GitHub\builders_act_maker\plugin\act_builder_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB932AC-54AC-4E5F-9CE7-496B43236A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22B1CC-EDF5-41B4-A41F-1FEA12943850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Акт окончаниря работ" sheetId="62" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Акт окончаниря работ'!$A$1:$L$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Акт окончаниря работ'!$A$1:$L$62</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>АКТ</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Акт составлен в </t>
-  </si>
-  <si>
-    <t>экземплярах</t>
   </si>
   <si>
     <t>2. Работы выполнены по проектной документации:</t>
@@ -579,7 +576,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,11 +592,29 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -607,39 +622,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1024,10 +1021,10 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:L45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1036,703 +1033,785 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="I5" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F27" s="15" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-    </row>
-    <row r="35" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="37" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-    </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="48">
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A58:L58"/>
     <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A59:L59"/>
     <mergeCell ref="A52:L52"/>
     <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plugin/act_builder_lib/clouseAct.xlsx
+++ b/plugin/act_builder_lib/clouseAct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danek\Documents\GitHub\builders_act_maker\plugin\act_builder_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A22B1CC-EDF5-41B4-A41F-1FEA12943850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0523F-6C27-4573-BDF0-486C3D9270B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,11 +595,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -608,35 +631,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1024,7 +1020,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:L41"/>
+      <selection activeCell="A34" sqref="A34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1033,36 +1029,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1070,18 +1066,18 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1091,9 +1087,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1101,280 +1097,280 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
@@ -1383,26 +1379,26 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1415,34 +1411,34 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1450,71 +1446,71 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -1527,28 +1523,28 @@
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -1556,34 +1552,34 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -1591,34 +1587,34 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -1626,34 +1622,34 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
@@ -1661,34 +1657,34 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -1696,34 +1692,34 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -1731,60 +1727,46 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A55:L55"/>
     <mergeCell ref="A46:L46"/>
     <mergeCell ref="A47:L47"/>
     <mergeCell ref="A49:L49"/>
@@ -1797,19 +1779,33 @@
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" fitToWidth="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
